--- a/works/nettyServer/target/classes/excels/skill.xlsx
+++ b/works/nettyServer/target/classes/excels/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>cd</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t>回环剑</t>
@@ -84,7 +81,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,21 +96,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,25 +133,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,15 +170,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -182,7 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,25 +201,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,19 +226,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +340,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,19 +376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,127 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +444,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -462,21 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -488,20 +485,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,15 +1022,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,16 +1046,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1069,16 +1063,13 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1089,16 +1080,13 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1109,16 +1097,13 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1129,16 +1114,13 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1149,16 +1131,13 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1169,16 +1148,13 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1188,9 +1164,6 @@
       </c>
       <c r="E8">
         <v>300</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/target/classes/excels/skill.xlsx
+++ b/works/nettyServer/target/classes/excels/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,14 +74,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,128 +216,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -226,187 +226,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,11 +420,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,16 +451,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,43 +512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1095,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1112,7 +1112,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1129,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1160,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
         <v>100</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/target/classes/excels/skill.xlsx
+++ b/works/nettyServer/target/classes/excels/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15275" windowHeight="7307"/>
+    <workbookView windowWidth="15708" windowHeight="8435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -45,13 +45,16 @@
     <t>残影剑</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>挑灯看剑</t>
   </si>
   <si>
     <t>飞星震</t>
   </si>
   <si>
-    <t>1,4</t>
+    <t>1,5</t>
   </si>
   <si>
     <t>醉梦仙花</t>
@@ -65,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,31 +96,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,16 +119,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,7 +135,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,30 +149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,9 +159,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,9 +173,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,11 +429,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,45 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -531,145 +534,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,7 +1034,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1056,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1072,8 +1075,11 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1088,6 +1094,9 @@
       </c>
       <c r="E3">
         <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1106,8 +1115,8 @@
       <c r="E4">
         <v>3000</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1115,7 +1124,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1127,7 +1136,7 @@
         <v>5000</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1135,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1147,7 +1156,7 @@
         <v>5000</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1155,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1167,15 +1176,15 @@
         <v>3000</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1185,6 +1194,9 @@
       </c>
       <c r="E8">
         <v>100000</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/target/classes/excels/skill.xlsx
+++ b/works/nettyServer/target/classes/excels/skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>挑灯看剑</t>
+  </si>
+  <si>
+    <t>1,6</t>
   </si>
   <si>
     <t>飞星震</t>
@@ -68,8 +71,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -83,14 +86,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +130,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -127,15 +170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +184,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -157,70 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +238,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,168 +419,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +429,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,24 +473,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,19 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,145 +537,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,7 +1037,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1135,8 +1138,8 @@
       <c r="E5">
         <v>5000</v>
       </c>
-      <c r="F5">
-        <v>3</v>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1144,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1156,7 +1159,7 @@
         <v>5000</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1164,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1184,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0</v>

--- a/works/nettyServer/target/classes/excels/skill.xlsx
+++ b/works/nettyServer/target/classes/excels/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15708" windowHeight="8435"/>
+    <workbookView windowWidth="21216" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>mp</t>
-  </si>
-  <si>
-    <t>atk</t>
   </si>
   <si>
     <t>cd</t>
@@ -71,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,6 +83,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -93,7 +97,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,7 +120,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,19 +173,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,14 +205,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,51 +225,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,6 +235,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,19 +349,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,31 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,115 +397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +426,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,17 +459,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,11 +481,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,30 +526,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,153 +534,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,15 +1028,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,147 +1052,123 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
         <v>3000</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
         <v>5000</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
         <v>5000</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3000</v>
       </c>
       <c r="E7">
-        <v>3000</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="E8">
-        <v>100000</v>
-      </c>
-      <c r="F8">
         <v>7</v>
       </c>
     </row>
